--- a/target/test-classes/excelfiles/data.xlsx
+++ b/target/test-classes/excelfiles/data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>si.no</t>
   </si>
@@ -83,6 +84,30 @@
   </si>
   <si>
     <t xml:space="preserve">  ijjbewi  </t>
+  </si>
+  <si>
+    <t>Anbukarnan</t>
+  </si>
+  <si>
+    <t>Anbu@123</t>
+  </si>
+  <si>
+    <t>Anbu</t>
+  </si>
+  <si>
+    <t>selvan</t>
+  </si>
+  <si>
+    <t>trichy</t>
+  </si>
+  <si>
+    <t>26/7/2023</t>
+  </si>
+  <si>
+    <t>28/7/2023</t>
+  </si>
+  <si>
+    <t>https://adactinhotelapp.com/</t>
   </si>
 </sst>
 </file>
@@ -437,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -589,4 +614,72 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1234567890987660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>